--- a/assignment_solution/assignment.xlsx
+++ b/assignment_solution/assignment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13920"/>
+    <workbookView windowWidth="28060" windowHeight="13920"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment2" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
     <t>Player2</t>
   </si>
   <si>
-    <t>0.5(v-c),0.5(v-c)</t>
+    <t>0.5v-c, 0.5v-c</t>
   </si>
   <si>
     <t>v, 0</t>
@@ -120,10 +120,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -143,6 +143,52 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,37 +202,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -195,84 +210,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,13 +293,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,7 +383,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,151 +443,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,15 +509,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -534,6 +525,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,142 +598,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1074,8 +1074,8 @@
   <sheetPr/>
   <dimension ref="F7:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32:J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>

--- a/assignment_solution/assignment.xlsx
+++ b/assignment_solution/assignment.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="13920"/>
+    <workbookView windowWidth="28060" windowHeight="13920" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment2" sheetId="1" r:id="rId1"/>
+    <sheet name="Q3.1" sheetId="2" r:id="rId2"/>
+    <sheet name="Q3.2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
   <si>
     <t>Alice</t>
   </si>
@@ -113,6 +115,163 @@
   </si>
   <si>
     <t>0, 0</t>
+  </si>
+  <si>
+    <t>Quesiotn  3. 1</t>
+  </si>
+  <si>
+    <t>s2s4</t>
+  </si>
+  <si>
+    <t>s2c4</t>
+  </si>
+  <si>
+    <t>c2c4</t>
+  </si>
+  <si>
+    <t>c2s4</t>
+  </si>
+  <si>
+    <t>S1S3</t>
+  </si>
+  <si>
+    <t>1, 1</t>
+  </si>
+  <si>
+    <t>S1C3</t>
+  </si>
+  <si>
+    <t>c1c3</t>
+  </si>
+  <si>
+    <t>0, 3</t>
+  </si>
+  <si>
+    <t>3, 3</t>
+  </si>
+  <si>
+    <t>1, 2</t>
+  </si>
+  <si>
+    <t>c1s3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SG1 </t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>SG2</t>
+  </si>
+  <si>
+    <t>s4</t>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>SG3</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>1. Boss: {N,W}X{I,Fi}X{Ft,F} = {(N,I,Ft),(N,I,F),()}
+2. Emp: {H,S}X{T,Q} = {(H,T), (H,Q), (S,T), (S,Q)}</t>
+  </si>
+  <si>
+    <t>1. yellow background is pure NE</t>
+  </si>
+  <si>
+    <t>Normal form of the game</t>
+  </si>
+  <si>
+    <t>emp</t>
+  </si>
+  <si>
+    <t>HT</t>
+  </si>
+  <si>
+    <t>HQ</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>SQ</t>
+  </si>
+  <si>
+    <t>boss</t>
+  </si>
+  <si>
+    <t>NIFt</t>
+  </si>
+  <si>
+    <t>1, 0</t>
+  </si>
+  <si>
+    <t>0, 1</t>
+  </si>
+  <si>
+    <t>NIF</t>
+  </si>
+  <si>
+    <t>NFiFt</t>
+  </si>
+  <si>
+    <t>-1, -1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NFiF </t>
+  </si>
+  <si>
+    <t>WIFt</t>
+  </si>
+  <si>
+    <t>WIF</t>
+  </si>
+  <si>
+    <t>-2, 1</t>
+  </si>
+  <si>
+    <t>WFiFt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WFiF </t>
+  </si>
+  <si>
+    <t>SG1</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Fi</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Ft</t>
+  </si>
+  <si>
+    <t>SG4</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -125,7 +284,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -134,15 +293,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,31 +335,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -195,14 +360,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -212,15 +369,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,22 +397,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,23 +413,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,19 +459,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,163 +621,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,15 +670,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,21 +707,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -564,6 +718,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,13 +757,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,153 +776,186 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -812,6 +1023,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142240</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>201295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>198755</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="5118735"/>
+          <a:ext cx="5408930" cy="3797300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1074,7 +1332,7 @@
   <sheetPr/>
   <dimension ref="F7:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A28" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="G32" sqref="G32:J35"/>
     </sheetView>
   </sheetViews>
@@ -1084,90 +1342,90 @@
   </cols>
   <sheetData>
     <row r="7" spans="7:10">
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" spans="7:10">
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="7:10">
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="7:10">
-      <c r="G10" s="1"/>
-      <c r="H10" s="2" t="s">
+      <c r="G10" s="12"/>
+      <c r="H10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="7:10">
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="1"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" spans="7:10">
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1" t="s">
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="7:10">
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="7:10">
-      <c r="G17" s="1"/>
-      <c r="H17" s="2" t="s">
+      <c r="G17" s="12"/>
+      <c r="H17" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1175,49 +1433,49 @@
       <c r="F20" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1" t="s">
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J20" s="1"/>
+      <c r="J20" s="12"/>
     </row>
     <row r="21" spans="6:10">
       <c r="F21" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1" t="s">
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="7:10">
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="7:10">
-      <c r="G23" s="1"/>
-      <c r="H23" s="2" t="s">
+      <c r="G23" s="12"/>
+      <c r="H23" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J23" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1225,90 +1483,90 @@
       <c r="F25" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1" t="s">
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J25" s="1"/>
+      <c r="J25" s="12"/>
     </row>
     <row r="26" spans="7:10">
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1" t="s">
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="7:10">
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="7:10">
-      <c r="G28" s="1"/>
-      <c r="H28" s="2" t="s">
+      <c r="G28" s="12"/>
+      <c r="H28" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="32" spans="7:10">
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1" t="s">
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J32" s="1"/>
+      <c r="J32" s="12"/>
     </row>
     <row r="33" spans="7:10">
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1" t="s">
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="7:10">
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="35" spans="7:10">
-      <c r="G35" s="1"/>
-      <c r="H35" s="2" t="s">
+      <c r="G35" s="12"/>
+      <c r="H35" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="J35" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1316,46 +1574,46 @@
       <c r="F37" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1" t="s">
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J37" s="1"/>
+      <c r="J37" s="12"/>
     </row>
     <row r="38" spans="7:10">
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1" t="s">
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="39" spans="7:10">
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="J39" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="40" spans="7:10">
-      <c r="G40" s="1"/>
-      <c r="H40" s="2" t="s">
+      <c r="G40" s="12"/>
+      <c r="H40" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I40" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="J40" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1363,4 +1621,708 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="C5:I25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetData>
+    <row r="5" spans="3:6">
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="6:9">
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="5:9">
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="5:9">
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="5:9">
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7">
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7">
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7">
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9">
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9">
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9">
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:N56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="5:10">
+      <c r="E4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="5:10">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="7" spans="5:14">
+      <c r="E7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="5:14">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="5:14">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="5:14">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="5:14">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="6:6">
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="6:9">
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9">
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9">
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9">
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9">
+      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9">
+      <c r="E19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9">
+      <c r="E20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9">
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9">
+      <c r="E22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="6:11">
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="42" spans="4:13">
+      <c r="D42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="4:13">
+      <c r="D43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="4:13">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="4:13">
+      <c r="D45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="4:13">
+      <c r="D46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" spans="4:13">
+      <c r="D47" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" spans="4:13">
+      <c r="D48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+    </row>
+    <row r="49" spans="4:13">
+      <c r="D49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" spans="4:13">
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" spans="4:13">
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+    </row>
+    <row r="52" spans="4:13">
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+    </row>
+    <row r="53" spans="4:13">
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+    </row>
+    <row r="54" spans="4:13">
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+    </row>
+    <row r="55" spans="4:13">
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+    </row>
+    <row r="56" spans="4:13">
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="E4:J5"/>
+    <mergeCell ref="E7:N11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>